--- a/documents/testings/Test-Case-Template-V1.xlsx
+++ b/documents/testings/Test-Case-Template-V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\teamservicerepo\documents\testings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Team-Service\documents\testings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0807A-4C76-4490-BD06-B0F16447006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E823003-C1C7-4FB6-B35C-1654A12F67EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trainings" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -453,6 +453,63 @@
   </si>
   <si>
     <t>Download List</t>
+  </si>
+  <si>
+    <t>Data is displayed properly with proper data</t>
+  </si>
+  <si>
+    <t>Verify if number of team members are displayed properly</t>
+  </si>
+  <si>
+    <t>Click on dashboard and check if the correct team members are displayed properly</t>
+  </si>
+  <si>
+    <t>team member</t>
+  </si>
+  <si>
+    <t>Verify if total projects are displayed or not</t>
+  </si>
+  <si>
+    <t>Click on dashboard and check if the correct number of projects are displayed properly</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>Total projects are displayed properly</t>
+  </si>
+  <si>
+    <t>Verify it total training is displayed in today at week</t>
+  </si>
+  <si>
+    <t>Click on dashboard and check if the total training are displayed properly</t>
+  </si>
+  <si>
+    <t>Total training are displayed properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if the designation are correctly displayed in barchart </t>
+  </si>
+  <si>
+    <t>check if designation in bar chart</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Distribution designation among team members are displayed in bar chart</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Distribution of team members on skills are displayed properly in piechart</t>
+  </si>
+  <si>
+    <t>Check if distribution of team members among skills are displayed properly in pie chart</t>
+  </si>
+  <si>
+    <t>Verify if the distribution of skills among team members are displayed in pie chart</t>
   </si>
 </sst>
 </file>
@@ -765,13 +822,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6176BDB0-AA6D-455C-811C-373B92BD9513}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1006,15 +1063,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="9" t="s">
@@ -1191,16 +1248,16 @@
       <c r="A11" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="30"/>
@@ -3281,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B2A233-32C3-49F8-9F33-EC1382F1C739}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3297,15 +3354,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="9" t="s">
@@ -4456,15 +4513,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="9" t="s">
@@ -5782,15 +5839,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="9" t="s">
@@ -6820,8 +6877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A019EA-5F76-4E7A-8855-0BEFCC95E025}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6836,15 +6893,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="9" t="s">
@@ -6870,13 +6927,99 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="44.4" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="46.2" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="92.4" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="48" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/documents/testings/Test-Case-Template-V1.xlsx
+++ b/documents/testings/Test-Case-Template-V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Team-Service\documents\testings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E823003-C1C7-4FB6-B35C-1654A12F67EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FC987B-ADC5-4C0F-91BF-E0EFD3887AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trainings" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -510,6 +510,138 @@
   </si>
   <si>
     <t>Verify if the distribution of skills among team members are displayed in pie chart</t>
+  </si>
+  <si>
+    <t>UT001</t>
+  </si>
+  <si>
+    <t>Table UI is properly displayed or not</t>
+  </si>
+  <si>
+    <t>UI is displayed properly</t>
+  </si>
+  <si>
+    <t>UT002</t>
+  </si>
+  <si>
+    <t>WFO preferences is only visible to team member</t>
+  </si>
+  <si>
+    <t>WFO preferences is displayed to team member</t>
+  </si>
+  <si>
+    <t>WFO preferences is only visible to team member and only for the current month if no forecast and for exceeding months or not</t>
+  </si>
+  <si>
+    <t>It is only visible to team member and only for the current month if no forecast and for exceeding months</t>
+  </si>
+  <si>
+    <t>If team member is able to add forcast on apply button or not</t>
+  </si>
+  <si>
+    <t>User is able to add forecast</t>
+  </si>
+  <si>
+    <t>Forecast change by user will only for current date and exceeding date</t>
+  </si>
+  <si>
+    <t>It will only for current date and exceeding date</t>
+  </si>
+  <si>
+    <t>Able to change forecast</t>
+  </si>
+  <si>
+    <t>Team member is allowed to add forcast of his only and able to see only his own forecast or not</t>
+  </si>
+  <si>
+    <t>If there is no forcast exists then it should displayed no data available</t>
+  </si>
+  <si>
+    <t>It is displayed</t>
+  </si>
+  <si>
+    <t>Admin and Manager is able to change forecast of any team member of any date or not</t>
+  </si>
+  <si>
+    <t>TO,TH,TL are correctly displayed on change forcast or not</t>
+  </si>
+  <si>
+    <t>They are displayed correctly</t>
+  </si>
+  <si>
+    <t>If the forcast data is correctly displayed according to the month selected</t>
+  </si>
+  <si>
+    <t>Data is correctly displayed</t>
+  </si>
+  <si>
+    <t>WFO days are according to the WFO preferences or not</t>
+  </si>
+  <si>
+    <t>WFO days are according to the selection in WFO preferences</t>
+  </si>
+  <si>
+    <t>Forecast is correctly displayed to admin and manager or not</t>
+  </si>
+  <si>
+    <t>Forecast is correctly displayed</t>
+  </si>
+  <si>
+    <t>Click on Dashboard and check if the UI is correctly displayed</t>
+  </si>
+  <si>
+    <t>Table of Forcast</t>
+  </si>
+  <si>
+    <t>Login by the team member credential and check if it is displayed</t>
+  </si>
+  <si>
+    <t>WFO preferences</t>
+  </si>
+  <si>
+    <t>Login by the team member credential and check if it is displayed and check if it is displayed for current month if no forcast is available and for exceeding month</t>
+  </si>
+  <si>
+    <t>Login by team member credentials and days for WFO and check if the forcast is add correctly</t>
+  </si>
+  <si>
+    <t>WFO preferences and Forcast Data</t>
+  </si>
+  <si>
+    <t>Change the forcast of today or exceeding days to check if it is changing or not</t>
+  </si>
+  <si>
+    <t>Change Forcast</t>
+  </si>
+  <si>
+    <t>Admin or Manager login and change the forcast of any date</t>
+  </si>
+  <si>
+    <t>Login by team member and check he  is able to see only his forcast</t>
+  </si>
+  <si>
+    <t>Forcast Data</t>
+  </si>
+  <si>
+    <t>Select a month which has no forcast data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data </t>
+  </si>
+  <si>
+    <t>Change the forcast and check if the TO,TH,TL are correctly displayed</t>
+  </si>
+  <si>
+    <t>TO,TH,TL</t>
+  </si>
+  <si>
+    <t>Select the month and check the forcast of selected month</t>
+  </si>
+  <si>
+    <t>Select the days in WFO prefrences and on click on apply check in the forcast data that WFO days are same as in WFO preferences</t>
+  </si>
+  <si>
+    <t>Login by admin or manager credential and check if the forcast data is correctly displayed</t>
   </si>
 </sst>
 </file>
@@ -747,19 +879,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -829,6 +952,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1063,21 +1189,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1096,181 +1222,181 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="90" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="82.8" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="82.8" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="69.599999999999994" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="66.599999999999994" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="69" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="61.2" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="66.599999999999994" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="54" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2288,62 +2414,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="15" customHeight="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -3354,21 +3480,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3387,119 +3513,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="73.8" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="42.6" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="44.4" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="59.4" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4513,21 +4639,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4546,286 +4672,286 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="90" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="46.8" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="58.8" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="33" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="47.4" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="45.6" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="43.8" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="46.8" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="40.200000000000003" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="28.2" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="43.8" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
@@ -5823,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E09850-2A4B-4690-9C2B-A2586549F5D2}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5839,21 +5965,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5872,14 +5998,233 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="90" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="67.8" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="70.2" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="45.6" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="92.4" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.2" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="45.6" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="48.6" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="61.2" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="46.8" customHeight="1">
+      <c r="A14" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6877,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A019EA-5F76-4E7A-8855-0BEFCC95E025}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6893,21 +7238,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -6926,100 +7271,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="90" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="90" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="44.4" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="46.2" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="92.4" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="48" customHeight="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7" ht="90.6" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
